--- a/reports/fruitTrees/cherryplum/cherryplum-ath_pss_no-orthologues_2025-09-15.xlsx
+++ b/reports/fruitTrees/cherryplum/cherryplum-ath_pss_no-orthologues_2025-09-15.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">NIMIN</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.1.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450'</t>
+    <t xml:space="preserve">26.11.3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450</t>
   </si>
   <si>
     <t xml:space="preserve">NIMIN1</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">D27</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9.1.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.strigolactone.biosynthesis.carotenoid isomerase *(DWARF27)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: carotenoid isomerase *(DWARF27) &amp; original description: | AT1G03055'</t>
+    <t xml:space="preserve">10.9.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.strigolactone.biosynthesis.carotenoid isomerase *(DWARF27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: carotenoid isomerase *(DWARF27) &amp; original description: | AT1G03055</t>
   </si>
   <si>
     <t xml:space="preserve">A. thaliana homolog of rice D27 | AtD27</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">BGLU18</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400'</t>
+    <t xml:space="preserve">50.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
   </si>
   <si>
     <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
@@ -122,13 +122,13 @@
     <t xml:space="preserve">PR13</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not assigned.not annotated'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT1G72260'</t>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not assigned.not annotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT1G72260</t>
   </si>
   <si>
     <t xml:space="preserve">THI2.1</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">DR4</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3.7.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.proteolysis.protease inhibitor activities.Kunitz protease inhibitor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: Kunitz protease inhibitor &amp; original description: | AT1G73330'</t>
+    <t xml:space="preserve">19.3.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.proteolysis.protease inhibitor activities.Kunitz protease inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: Kunitz protease inhibitor &amp; original description: | AT1G73330</t>
   </si>
   <si>
     <t xml:space="preserve">ATDR4 | drought-repressed 4</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">SERK4</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3.2.1.2' | '18.4.1.2' | '26.11.1.1.1.2' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.brassinosteroid.perception and signal transduction.receptor complex.co-receptor protein kinase *(BAK/SERK)' | 'Protein modification.phosphorylation.TKL protein kinase activities.LRR-II protein kinase' | 'External stimuli response.pathogen.pattern-triggered immunity (PTI) machinery.bacterial elicitor response.FLS2-BAK1 flagellin receptor complex.co-receptor kinase component *(BAK1)' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: brassinosteroid co-receptor protein kinase *(BAK/SERK) &amp; original description: | AT2G13790' | 'mercator4v7.0: LRR-II protein kinase &amp; original description: | AT2G13790' | 'mercator4v7.0: co-receptor kinase component of FLS2-BAK1 flagellin receptor complex &amp; original description: | AT2G13790' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT2G13790'</t>
+    <t xml:space="preserve">10.3.2.1.2 | 18.4.1.2 | 26.11.1.1.1.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.brassinosteroid.perception and signal transduction.receptor complex.co-receptor protein kinase *(BAK/SERK) | Protein modification.phosphorylation.TKL protein kinase activities.LRR-II protein kinase | External stimuli response.pathogen.pattern-triggered immunity (PTI) machinery.bacterial elicitor response.FLS2-BAK1 flagellin receptor complex.co-receptor kinase component *(BAK1) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: brassinosteroid co-receptor protein kinase *(BAK/SERK) &amp; original description: | AT2G13790 | mercator4v7.0: LRR-II protein kinase &amp; original description: | AT2G13790 | mercator4v7.0: co-receptor kinase component of FLS2-BAK1 flagellin receptor complex &amp; original description: | AT2G13790 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT2G13790</t>
   </si>
   <si>
     <t xml:space="preserve">BRI1-  ASSOCIATED KINASE 7 | ATSERK4 | BAK1-LIKE 1 | SOMATIC EMBRYOGENESIS RECEPTOR-LIKE KINASE 4 | BAK7 | BKK1</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">HSP</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1.9.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310'</t>
+    <t xml:space="preserve">19.1.9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310</t>
   </si>
   <si>
     <t xml:space="preserve">AT2G22000</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">PEP</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000'</t>
+    <t xml:space="preserve">26.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP6</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">LST8</t>
   </si>
   <si>
-    <t xml:space="preserve">27.10.1.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040'</t>
+    <t xml:space="preserve">27.10.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
   </si>
   <si>
     <t xml:space="preserve">LST8-2</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">PAB4</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3.2.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein biosynthesis.translation initiation.mRNA loading.mRNA poly-A-tail binding factor *(PABP)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: mRNA poly-A-tail binding factor *(PABP) &amp; original description: | AT2G23350'</t>
+    <t xml:space="preserve">17.3.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein biosynthesis.translation initiation.mRNA loading.mRNA poly-A-tail binding factor *(PABP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: mRNA poly-A-tail binding factor *(PABP) &amp; original description: | AT2G23350</t>
   </si>
   <si>
     <t xml:space="preserve">POLY(A) BINDING PROTEIN 4 | PABP4</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">REM12</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5.9.2.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-barrel DNA-binding domain.REM family.subgroup-C transcription factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: REM subgroup-C transcription factor &amp; original description: | AT2G24680'</t>
+    <t xml:space="preserve">14.5.9.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-barrel DNA-binding domain.REM family.subgroup-C transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: REM subgroup-C transcription factor &amp; original description: | AT2G24680</t>
   </si>
   <si>
     <t xml:space="preserve">AT2G26020</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">PDF1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.3.3.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020'</t>
+    <t xml:space="preserve">26.11.3.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2b</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">CML12</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100</t>
   </si>
   <si>
     <t xml:space="preserve">TCH3</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">JR1</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
   </si>
   <si>
     <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">ETP</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
   </si>
   <si>
     <t xml:space="preserve">ETP2</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">AT3G18980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
   </si>
   <si>
     <t xml:space="preserve">ETP1</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">AT3G46230</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1.9.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-I protein'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT3G46230'</t>
+    <t xml:space="preserve">19.1.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-I protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT3G46230</t>
   </si>
   <si>
     <t xml:space="preserve">HSP17.4</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">ARR-B</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G62670'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G62670</t>
   </si>
   <si>
     <t xml:space="preserve">RR20</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">AT5G09976</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G09978</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
   </si>
   <si>
     <t xml:space="preserve">PEP7</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">AT5G09980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP4</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">AT5G09990</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP5</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">AT5G44420</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420</t>
   </si>
   <si>
     <t xml:space="preserve">LCR77 | PDF1.2A | LOW-MOLECULAR-WEIGHT CYSTEINE-RICH 77 | PLANT DEFENSIN 1.2A</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">AT5G44430</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2c</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">GAMT1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6.3.2' | '50.2.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT)' | 'Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT5G56300' | 'mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT5G56300'</t>
+    <t xml:space="preserve">10.6.3.2 | 50.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT) | Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT5G56300 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT5G56300</t>
   </si>
   <si>
     <t xml:space="preserve">GAMT2</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">HSP18.1-CI | HSP</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT5G59720'</t>
+    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT5G59720</t>
   </si>
   <si>
     <t xml:space="preserve">HSP18.2</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">LECRK19</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4.1.19.2' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300'</t>
+    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
   </si>
   <si>
     <t xml:space="preserve">LecRK-I.9</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">AT5G64890</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP2</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">AT5G64900</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP1</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">AT5G64905</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP3</t>
@@ -558,15 +558,6 @@
   </si>
   <si>
     <t xml:space="preserve">clpP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3.2.7.1.1' | '50.3.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.proteolysis.serine peptidase activities.chloroplast Clp-type protease complex.ClpP proteolytic core activities.proteolytic component *(ClpP1)' | 'Enzyme classification.EC_3 hydrolases.EC_3-4 hydrolase acting on peptide bond (peptidase)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: proteolytic component *(ClpP1) of chloroplast Clp-type protease complex &amp; original description: | ATCG00670' | 'mercator4v7.0: EC_3.4 hydrolase acting on peptide bond (peptidase) &amp; original description: | ATCG00670'</t>
   </si>
   <si>
     <t xml:space="preserve">PCLPP</t>
@@ -1825,20 +1816,14 @@
       <c r="C40" t="s">
         <v>181</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40" t="s">
         <v>182</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>183</v>
-      </c>
-      <c r="F40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" t="s">
-        <v>185</v>
-      </c>
-      <c r="H40" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
